--- a/Input_data.xlsx
+++ b/Input_data.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21231"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tol\Google Drive\SCOPE course\model_code\retrievals\Leaf_retrieval\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{671341C7-0B64-4223-8F8F-D45E99DA69D7}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="120" windowWidth="18195" windowHeight="8760"/>
+    <workbookView xWindow="0" yWindow="1500" windowWidth="23040" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Input" sheetId="1" r:id="rId1"/>
@@ -23,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="80">
   <si>
     <t>Measured transmittance [0,1]</t>
   </si>
@@ -112,12 +118,6 @@
     <t>leaf water thickness equivalent   [cm]</t>
   </si>
   <si>
-    <t>senescent material                [fraction]</t>
-  </si>
-  <si>
-    <t>carotenoids                       [?]</t>
-  </si>
-  <si>
     <t>leaf structure parameter (affects the ratio of refl: transmittance) []</t>
   </si>
   <si>
@@ -130,127 +130,151 @@
     <t>Which spectral region should I calibrate (measured wavelengths can span longer range, but the range specified here is used for calibration</t>
   </si>
   <si>
+    <t>wavelength measurements (nm)</t>
+  </si>
+  <si>
+    <t>Filenames and location of measured spectra and output results</t>
+  </si>
+  <si>
+    <t>Output directory</t>
+  </si>
+  <si>
+    <t>Directory of measurements</t>
+  </si>
+  <si>
+    <t>..\data\output\</t>
+  </si>
+  <si>
+    <t>Simulation name</t>
+  </si>
+  <si>
+    <t>fitted parameters (will appear AFTER running the model)</t>
+  </si>
+  <si>
+    <t>RMSE (mod-meas spectra)</t>
+  </si>
+  <si>
+    <t>Cab (ug cm-2)</t>
+  </si>
+  <si>
+    <t>Cw (mg cm-2)</t>
+  </si>
+  <si>
+    <t>Cdm (mg cm-2)</t>
+  </si>
+  <si>
+    <t>Cs (fraction)</t>
+  </si>
+  <si>
+    <t>Cca (ug cm-2)</t>
+  </si>
+  <si>
+    <t>N (dimensionless)</t>
+  </si>
+  <si>
+    <t>wl</t>
+  </si>
+  <si>
+    <t>Rmeas</t>
+  </si>
+  <si>
+    <t>This will be filled AFTER running the model</t>
+  </si>
+  <si>
+    <t>Rmod</t>
+  </si>
+  <si>
+    <t>Tmod</t>
+  </si>
+  <si>
+    <t>Tmeas</t>
+  </si>
+  <si>
+    <t>Incident light [W m-2 um-1]</t>
+  </si>
+  <si>
+    <t>Measured fluorescence up</t>
+  </si>
+  <si>
+    <t>Measured fluorescence down</t>
+  </si>
+  <si>
+    <t>OPTIONAL: this file is not used in the calculation but only for plotting</t>
+  </si>
+  <si>
+    <t>A subdirectory will be created in the output directory with this name</t>
+  </si>
+  <si>
+    <t>OPTIONAL: the model needs this for the calculation of fluoresence (not for reflectance and transmittance)</t>
+  </si>
+  <si>
+    <t>0: calibrate T and R, 1: calibrate only R; 2: calibrate only T</t>
+  </si>
+  <si>
+    <t>Standard deviaton of measured r and t</t>
+  </si>
+  <si>
+    <t>number of header lines in input data files</t>
+  </si>
+  <si>
+    <t>number of header columns in input data files</t>
+  </si>
+  <si>
     <t>wl.txt</t>
   </si>
   <si>
-    <t>Reflectance.txt</t>
-  </si>
-  <si>
-    <t>Transmittance.txt</t>
-  </si>
-  <si>
-    <t>wavelength measurements (nm)</t>
-  </si>
-  <si>
-    <t>Filenames and location of measured spectra and output results</t>
-  </si>
-  <si>
-    <t>Output directory</t>
-  </si>
-  <si>
-    <t>Directory of measurements</t>
-  </si>
-  <si>
-    <t>..\data\output\</t>
-  </si>
-  <si>
-    <t>Simulation name</t>
-  </si>
-  <si>
-    <t>fitted parameters (will appear AFTER running the model)</t>
-  </si>
-  <si>
-    <t>RMSE (mod-meas spectra)</t>
-  </si>
-  <si>
-    <t>Cab (ug cm-2)</t>
-  </si>
-  <si>
-    <t>Cw (mg cm-2)</t>
-  </si>
-  <si>
-    <t>Cdm (mg cm-2)</t>
-  </si>
-  <si>
-    <t>Cs (fraction)</t>
-  </si>
-  <si>
-    <t>Cca (ug cm-2)</t>
-  </si>
-  <si>
-    <t>N (dimensionless)</t>
-  </si>
-  <si>
-    <t>wl</t>
-  </si>
-  <si>
-    <t>Rmeas</t>
-  </si>
-  <si>
-    <t>This will be filled AFTER running the model</t>
-  </si>
-  <si>
-    <t>Rmod</t>
-  </si>
-  <si>
-    <t>Tmod</t>
-  </si>
-  <si>
-    <t>Tmeas</t>
+    <t>test</t>
   </si>
   <si>
     <t>..\data\measured\leaf\</t>
   </si>
   <si>
-    <t>ABEL_leaf</t>
-  </si>
-  <si>
-    <t>Incident light [W m-2 um-1]</t>
-  </si>
-  <si>
-    <t>Measured fluorescence up</t>
-  </si>
-  <si>
-    <t>Measured fluorescence down</t>
-  </si>
-  <si>
-    <t>Fluorescence_down.txt</t>
-  </si>
-  <si>
-    <t>OPTIONAL: this file is not used in the calculation but only for plotting</t>
-  </si>
-  <si>
-    <t>leafbio.fqeII</t>
-  </si>
-  <si>
-    <t>Fluorescence quantum yield efficiency of Photosytem II. NOT automatically tunable now</t>
-  </si>
-  <si>
-    <t>Fluorescence quantum yield efficiency of Photosytem I. NOT automatically tunable now</t>
-  </si>
-  <si>
-    <t>Incident filtered.txt</t>
-  </si>
-  <si>
-    <t>Fluorescence_up.txt</t>
-  </si>
-  <si>
-    <t>A subdirectory will be created in the output directory with this name</t>
-  </si>
-  <si>
-    <t>OPTIONAL: the model needs this for the calculation of fluoresence (not for reflectance and transmittance)</t>
-  </si>
-  <si>
-    <t>leafbio.fqeI</t>
-  </si>
-  <si>
-    <t>0: calibrate T and R, 1: calibrate only R; 2: calibrate only T</t>
+    <t>reflectance.txt</t>
+  </si>
+  <si>
+    <t>transmittance.txt</t>
+  </si>
+  <si>
+    <t>leafbio.fqe</t>
+  </si>
+  <si>
+    <t>Fluorescence quantum yield efficiency</t>
+  </si>
+  <si>
+    <t>senescent (brown) pigments                [unitless]</t>
+  </si>
+  <si>
+    <t>carotenoids                       [mug cm-2]</t>
+  </si>
+  <si>
+    <t>leafbio.Cant</t>
+  </si>
+  <si>
+    <t>Cant (mug cm-1)</t>
+  </si>
+  <si>
+    <t>anthocyanin content [mug cm-2]</t>
+  </si>
+  <si>
+    <t>include.Cant</t>
+  </si>
+  <si>
+    <t>include.Cx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">leafbio.Cx </t>
+  </si>
+  <si>
+    <t>xanthophyll cycle status [0-3]</t>
+  </si>
+  <si>
+    <t>Cx (dimensionless)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -303,6 +327,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -350,7 +377,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -383,9 +410,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -418,6 +462,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -593,327 +654,370 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E40"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="31" customWidth="1"/>
-    <col min="2" max="2" width="8.42578125" customWidth="1"/>
-    <col min="3" max="3" width="4.85546875" customWidth="1"/>
+    <col min="1" max="1" width="37.77734375" customWidth="1"/>
+    <col min="2" max="2" width="8.44140625" customWidth="1"/>
+    <col min="3" max="3" width="4.88671875" customWidth="1"/>
+    <col min="4" max="4" width="37.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+      <c r="B4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>1</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>0</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>60</v>
       </c>
-      <c r="B7" t="s">
-        <v>68</v>
-      </c>
-      <c r="E7" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B7" s="1"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
+        <v>53</v>
+      </c>
+      <c r="E8" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>54</v>
+      </c>
+      <c r="B9" s="1"/>
+      <c r="E9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>55</v>
+      </c>
+      <c r="B10" s="1"/>
+      <c r="E10" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>38</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E11" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
         <v>61</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="E8" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="B12" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
         <v>62</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="E9" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>43</v>
-      </c>
-      <c r="B10" s="1" t="s">
+      <c r="B13" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>12</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="D17" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>4</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>5</v>
+      </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>6</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>7</v>
+      </c>
+      <c r="B23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>8</v>
+      </c>
+      <c r="B24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>75</v>
+      </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>76</v>
+      </c>
+      <c r="B26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>9</v>
+      </c>
+      <c r="B27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>17</v>
+      </c>
+      <c r="B30">
+        <v>0</v>
+      </c>
+      <c r="D30" t="s">
         <v>59</v>
       </c>
-      <c r="E10" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14">
-        <v>1</v>
-      </c>
-      <c r="D14" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>4</v>
-      </c>
-      <c r="B17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>5</v>
-      </c>
-      <c r="B18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>6</v>
-      </c>
-      <c r="B19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>7</v>
-      </c>
-      <c r="B20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>8</v>
-      </c>
-      <c r="B21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>9</v>
-      </c>
-      <c r="B22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>17</v>
-      </c>
-      <c r="B25">
-        <v>2</v>
-      </c>
-      <c r="D25" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+    </row>
+    <row r="32" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
         <v>18</v>
       </c>
-      <c r="B28">
+      <c r="B33">
         <v>400</v>
       </c>
-      <c r="D28" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+      <c r="D33" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
         <v>19</v>
       </c>
-      <c r="B29">
-        <v>2200</v>
-      </c>
-      <c r="D29" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="3" t="s">
+      <c r="B34">
+        <v>2400</v>
+      </c>
+      <c r="D34" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="32" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="3" t="s">
+    <row r="37" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
         <v>20</v>
       </c>
-      <c r="B33">
-        <v>40</v>
-      </c>
-      <c r="D33" t="s">
+      <c r="B38">
+        <v>28</v>
+      </c>
+      <c r="D38" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
         <v>25</v>
       </c>
-      <c r="B34">
-        <v>1.2E-2</v>
-      </c>
-      <c r="D34" t="s">
+      <c r="B39">
+        <v>1E-3</v>
+      </c>
+      <c r="D39" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
         <v>21</v>
-      </c>
-      <c r="B35">
-        <v>8.9999999999999993E-3</v>
-      </c>
-      <c r="D35" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>22</v>
-      </c>
-      <c r="B36">
-        <v>0</v>
-      </c>
-      <c r="D36" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>23</v>
-      </c>
-      <c r="B37">
-        <v>5</v>
-      </c>
-      <c r="D37" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>24</v>
-      </c>
-      <c r="B38">
-        <v>1.4</v>
-      </c>
-      <c r="D38" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>65</v>
-      </c>
-      <c r="B39">
-        <v>0.01</v>
-      </c>
-      <c r="D39" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>72</v>
       </c>
       <c r="B40">
         <v>2E-3</v>
       </c>
       <c r="D40" t="s">
-        <v>67</v>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>22</v>
+      </c>
+      <c r="B41">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="D41" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>23</v>
+      </c>
+      <c r="B42">
+        <v>4</v>
+      </c>
+      <c r="D42" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>72</v>
+      </c>
+      <c r="B43">
+        <v>1</v>
+      </c>
+      <c r="D43" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>77</v>
+      </c>
+      <c r="B44">
+        <v>0</v>
+      </c>
+      <c r="D44" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>24</v>
+      </c>
+      <c r="B45">
+        <v>1.5</v>
+      </c>
+      <c r="D45" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>68</v>
+      </c>
+      <c r="B46">
+        <v>0.01</v>
+      </c>
+      <c r="D46" t="s">
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -923,68 +1027,78 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:A10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="26.140625" customWidth="1"/>
+    <col min="1" max="1" width="26.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>45</v>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -993,24 +1107,24 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="B1" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="C1" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -1019,24 +1133,24 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1" t="s">
         <v>52</v>
       </c>
-      <c r="B1" t="s">
-        <v>57</v>
-      </c>
       <c r="C1" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -1045,24 +1159,24 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="B1" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="C1" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -1071,24 +1185,24 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="B1" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="C1" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -1097,36 +1211,36 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
